--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655481.1209827579</v>
+        <v>655044.8053083109</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996857</v>
+        <v>218615.8834996856</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>263.2672101640276</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.0473944322095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>26.9601703986728</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -750,7 +750,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>65.70039600055038</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -801,7 +801,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>42.52181513094155</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>26.36468682382554</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>113.6069575741322</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>366.770030604956</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>36.98058010805909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>93.57765400302297</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>37.76353774383357</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>218.0038856004735</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>215.2948701189295</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>121.7006560179126</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1275,10 +1275,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.94288232417847</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>139.6932944279989</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>77.98390611024949</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
-        <v>266.186147030886</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2012677100157</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>320.0484892653209</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>79.194569388259</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091663</v>
+        <v>52.49480050747367</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
         <v>286.3153816586886</v>
@@ -1458,7 +1458,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
@@ -1509,7 +1509,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>224.3372187935193</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250307</v>
+        <v>89.82535758250309</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790356</v>
+        <v>76.02535242790357</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548195</v>
+        <v>59.64671682548196</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126139</v>
+        <v>58.59446668126141</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.06139100944772</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079554</v>
+        <v>75.33609373079555</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348596</v>
+        <v>65.88446135348597</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673262</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>119.6782075553164</v>
@@ -1591,7 +1591,7 @@
         <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>64.92150602672596</v>
+        <v>61.99222117401062</v>
       </c>
       <c r="Y13" t="n">
         <v>127.9203498046127</v>
@@ -1607,25 +1607,25 @@
         <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
-        <v>298.9434052799213</v>
+        <v>298.9434052799212</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>320.0484892653209</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436309</v>
+        <v>237.5986042436308</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.19456938825897</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.4622282009166</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.4420255081129</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>180.2369613786402</v>
+        <v>11.03823228535407</v>
       </c>
       <c r="X14" t="n">
         <v>286.3153816586886</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.259757067945</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.82535758250305</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790356</v>
+        <v>76.02535242790353</v>
       </c>
       <c r="D16" t="n">
-        <v>8.521903472607802</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126139</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079554</v>
+        <v>75.33609373079551</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.88446135348593</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831531</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553164</v>
+        <v>119.6782075553163</v>
       </c>
       <c r="T16" t="n">
-        <v>138.952706237445</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>192.4238797007582</v>
+        <v>102.2493136416573</v>
       </c>
       <c r="V16" t="n">
-        <v>166.2334939821287</v>
+        <v>166.2334939821286</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>191.4003800527419</v>
       </c>
       <c r="X16" t="n">
         <v>137.045482048545</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.974038980382</v>
+        <v>223.9740389803821</v>
       </c>
       <c r="C17" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D17" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E17" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F17" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G17" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H17" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I17" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835063</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349269</v>
       </c>
       <c r="T17" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384205</v>
       </c>
       <c r="U17" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068901</v>
       </c>
       <c r="V17" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W17" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X17" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507914</v>
       </c>
       <c r="C19" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479621</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371605</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.44359982789237</v>
+        <v>45.44359982789243</v>
       </c>
       <c r="T19" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002106</v>
       </c>
       <c r="U19" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V19" t="n">
-        <v>91.99888625470467</v>
+        <v>91.99888625470473</v>
       </c>
       <c r="W19" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X19" t="n">
-        <v>62.81087432112105</v>
+        <v>62.8108743211211</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718879</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.974038980382</v>
+        <v>223.9740389803821</v>
       </c>
       <c r="C20" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D20" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E20" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F20" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G20" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H20" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I20" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835063</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349138</v>
       </c>
       <c r="T20" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384205</v>
       </c>
       <c r="U20" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068901</v>
       </c>
       <c r="V20" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W20" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X20" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2226,7 +2226,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>176.030621801413</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507914</v>
       </c>
       <c r="C22" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479621</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371605</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>45.44359982789237</v>
+        <v>45.44359982789243</v>
       </c>
       <c r="T22" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002106</v>
       </c>
       <c r="U22" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V22" t="n">
-        <v>91.99888625470467</v>
+        <v>91.99888625470473</v>
       </c>
       <c r="W22" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X22" t="n">
-        <v>62.81087432112105</v>
+        <v>62.8108743211211</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718879</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.974038980382</v>
+        <v>223.9740389803821</v>
       </c>
       <c r="C23" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D23" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E23" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F23" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G23" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H23" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I23" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835063</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349269</v>
       </c>
       <c r="T23" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384205</v>
       </c>
       <c r="U23" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068901</v>
       </c>
       <c r="V23" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W23" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X23" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2454,7 +2454,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>211.5461750406456</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507914</v>
       </c>
       <c r="C25" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479621</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371605</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>45.44359982789237</v>
+        <v>45.44359982789243</v>
       </c>
       <c r="T25" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002106</v>
       </c>
       <c r="U25" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V25" t="n">
-        <v>91.99888625470467</v>
+        <v>91.99888625470473</v>
       </c>
       <c r="W25" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X25" t="n">
-        <v>62.81087432112105</v>
+        <v>62.8108743211211</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718879</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612605</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189422</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634701</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333757</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213528</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187753</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970853</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171343</v>
+        <v>42.42795794171332</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437106</v>
+        <v>56.69561675437095</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472042</v>
+        <v>93.45428794472031</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615674</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014395</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793965</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121431</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083418</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="27">
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595751</v>
+        <v>53.05874613595739</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135799</v>
+        <v>39.25874098135787</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893638</v>
+        <v>22.88010537893626</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471583</v>
+        <v>21.82785523471571</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290214</v>
+        <v>22.29477956290202</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424997</v>
+        <v>38.56948228424986</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694039</v>
+        <v>29.11784990694028</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176974</v>
+        <v>14.09994509176963</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018705</v>
+        <v>19.36549471018694</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877079</v>
+        <v>82.91159610877068</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908994</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542126</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V28" t="n">
-        <v>129.4668825355831</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061964</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019995</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806716</v>
+        <v>91.15373835806705</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>249.4533522189421</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634701</v>
+        <v>240.43465626347</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333757</v>
+        <v>262.1767938333755</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213528</v>
+        <v>281.3486099213527</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187753</v>
+        <v>283.2818778187752</v>
       </c>
       <c r="H29" t="n">
         <v>200.8319927970852</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171337</v>
+        <v>42.42795794171332</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.6956167543718</v>
+        <v>56.69561675437095</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472036</v>
+        <v>93.45428794472031</v>
       </c>
       <c r="U29" t="n">
         <v>123.6754140615673</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014395</v>
+        <v>204.9484125014394</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793964</v>
+        <v>230.2485119793963</v>
       </c>
       <c r="X29" t="n">
         <v>249.548770212143</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083418</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595745</v>
+        <v>53.05874613595739</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135793</v>
+        <v>39.25874098135787</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893632</v>
+        <v>22.88010537893626</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471577</v>
+        <v>21.82785523471571</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290208</v>
+        <v>22.29477956290202</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424991</v>
+        <v>38.56948228424986</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694034</v>
+        <v>29.11784990694028</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176968</v>
+        <v>14.09994509176963</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018699</v>
+        <v>19.36549471018694</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877074</v>
+        <v>82.91159610877068</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908994</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
         <v>155.6572682542125</v>
@@ -3010,13 +3010,13 @@
         <v>129.466882535583</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061963</v>
+        <v>154.6337686061962</v>
       </c>
       <c r="X31" t="n">
         <v>100.2788706019994</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.1537383580671</v>
+        <v>91.15373835806705</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>241.3384925937708</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382988</v>
+        <v>232.3197966382987</v>
       </c>
       <c r="E32" t="n">
         <v>254.0619342082043</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961815</v>
+        <v>273.2337502961814</v>
       </c>
       <c r="G32" t="n">
         <v>275.167018193604</v>
@@ -3047,7 +3047,7 @@
         <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654204</v>
+        <v>34.31309831654201</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919967</v>
+        <v>48.58075712919964</v>
       </c>
       <c r="T32" t="n">
-        <v>85.33942831954903</v>
+        <v>85.339428319549</v>
       </c>
       <c r="U32" t="n">
         <v>115.560554436396</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762682</v>
+        <v>196.8335528762681</v>
       </c>
       <c r="W32" t="n">
-        <v>222.1336523542251</v>
+        <v>222.133652354225</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869717</v>
+        <v>241.4339105869716</v>
       </c>
       <c r="Y32" t="n">
         <v>252.8305083831704</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133622</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078611</v>
+        <v>44.94388651078609</v>
       </c>
       <c r="C34" t="n">
-        <v>31.1438813561866</v>
+        <v>31.14388135618657</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376499</v>
+        <v>14.76524575376496</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954444</v>
+        <v>13.71299560954441</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773074</v>
+        <v>14.17991993773072</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907858</v>
+        <v>30.45462265907855</v>
       </c>
       <c r="H34" t="n">
-        <v>21.002990281769</v>
+        <v>21.00299028176897</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598349</v>
+        <v>5.985085466598321</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501566</v>
+        <v>11.25063508501563</v>
       </c>
       <c r="S34" t="n">
-        <v>74.7967364835994</v>
+        <v>74.79673648359937</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572804</v>
+        <v>94.07123516572801</v>
       </c>
       <c r="U34" t="n">
         <v>147.5424086290412</v>
@@ -3247,13 +3247,13 @@
         <v>121.3520229104117</v>
       </c>
       <c r="W34" t="n">
-        <v>146.518908981025</v>
+        <v>146.5189089810249</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682808</v>
+        <v>92.16401097682805</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289577</v>
+        <v>83.03887873289574</v>
       </c>
     </row>
     <row r="35">
@@ -3360,7 +3360,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
         <v>211.9853559380638</v>
@@ -3995,7 +3995,7 @@
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
         <v>167.4804162205612</v>
@@ -4043,7 +4043,7 @@
         <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
         <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1180.484829334418</v>
+        <v>1227.183957722163</v>
       </c>
       <c r="C2" t="n">
-        <v>798.5510706672255</v>
+        <v>1227.183957722163</v>
       </c>
       <c r="D2" t="n">
-        <v>798.5510706672255</v>
+        <v>1227.183957722163</v>
       </c>
       <c r="E2" t="n">
-        <v>798.5510706672255</v>
+        <v>1227.183957722163</v>
       </c>
       <c r="F2" t="n">
-        <v>384.3998799773958</v>
+        <v>961.2574828090039</v>
       </c>
       <c r="G2" t="n">
-        <v>372.3362974719878</v>
+        <v>545.1534962631919</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51502306929713</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="I2" t="n">
         <v>39.51502306929713</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5135673421028</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="K2" t="n">
-        <v>351.6539393868856</v>
+        <v>279.6553951140799</v>
       </c>
       <c r="L2" t="n">
-        <v>699.5393124718319</v>
+        <v>627.5407681990262</v>
       </c>
       <c r="M2" t="n">
-        <v>1092.77847872492</v>
+        <v>1020.779934452114</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.109837412635</v>
+        <v>1399.11129313983</v>
       </c>
       <c r="O2" t="n">
-        <v>1653.162003322266</v>
+        <v>1704.115877612664</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.31889977832</v>
+        <v>1932.272774068717</v>
       </c>
       <c r="Q2" t="n">
         <v>1975.751153464857</v>
@@ -4358,22 +4358,22 @@
         <v>1788.522178095211</v>
       </c>
       <c r="T2" t="n">
-        <v>1788.522178095211</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="U2" t="n">
-        <v>1788.522178095211</v>
+        <v>1564.163231826222</v>
       </c>
       <c r="V2" t="n">
-        <v>1788.522178095211</v>
+        <v>1227.183957722163</v>
       </c>
       <c r="W2" t="n">
-        <v>1425.987247952812</v>
+        <v>1227.183957722163</v>
       </c>
       <c r="X2" t="n">
-        <v>1425.987247952812</v>
+        <v>1227.183957722163</v>
       </c>
       <c r="Y2" t="n">
-        <v>1180.484829334418</v>
+        <v>1227.183957722163</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>717.6246829490301</v>
+        <v>918.8277835713412</v>
       </c>
       <c r="C3" t="n">
-        <v>555.9210101899848</v>
+        <v>757.124110812296</v>
       </c>
       <c r="D3" t="n">
-        <v>555.9210101899848</v>
+        <v>618.285473802508</v>
       </c>
       <c r="E3" t="n">
-        <v>408.893000246856</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F3" t="n">
-        <v>274.1992021967304</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G3" t="n">
         <v>207.8351658325381</v>
@@ -4407,22 +4407,22 @@
         <v>39.51502306929713</v>
       </c>
       <c r="J3" t="n">
-        <v>39.51502306929713</v>
+        <v>99.76916960240328</v>
       </c>
       <c r="K3" t="n">
-        <v>39.51502306929713</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L3" t="n">
-        <v>149.6518896266357</v>
+        <v>451.747808902333</v>
       </c>
       <c r="M3" t="n">
-        <v>634.6852431368621</v>
+        <v>936.7811624125594</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.683653619414</v>
+        <v>1425.779572895111</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.883604403565</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="P3" t="n">
         <v>1817.979523679262</v>
@@ -4431,28 +4431,28 @@
         <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559802</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S3" t="n">
-        <v>1763.167397572543</v>
+        <v>1822.951666477597</v>
       </c>
       <c r="T3" t="n">
-        <v>1763.167397572543</v>
+        <v>1634.266562643582</v>
       </c>
       <c r="U3" t="n">
-        <v>1544.672605170853</v>
+        <v>1415.771770241892</v>
       </c>
       <c r="V3" t="n">
-        <v>1316.276982619187</v>
+        <v>1187.376147690226</v>
       </c>
       <c r="W3" t="n">
-        <v>1074.961113852497</v>
+        <v>946.060278923536</v>
       </c>
       <c r="X3" t="n">
-        <v>877.0441257302911</v>
+        <v>946.060278923536</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.0441257302911</v>
+        <v>946.060278923536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.0188996308498</v>
+        <v>1910.582815326803</v>
       </c>
       <c r="C4" t="n">
-        <v>388.0188996308498</v>
+        <v>1740.966845788483</v>
       </c>
       <c r="D4" t="n">
-        <v>234.9470064586125</v>
+        <v>1587.894952616246</v>
       </c>
       <c r="E4" t="n">
-        <v>234.9470064586125</v>
+        <v>1587.894952616246</v>
       </c>
       <c r="F4" t="n">
-        <v>82.46635148438961</v>
+        <v>1587.894952616246</v>
       </c>
       <c r="G4" t="n">
-        <v>82.46635148438961</v>
+        <v>1587.894952616246</v>
       </c>
       <c r="H4" t="n">
-        <v>82.46635148438961</v>
+        <v>1587.894952616246</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929713</v>
+        <v>1443.691908218924</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929713</v>
+        <v>1443.691908218924</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394054</v>
+        <v>1477.296095963568</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142</v>
+        <v>1577.903175363827</v>
       </c>
       <c r="M4" t="n">
-        <v>291.7197963418018</v>
+        <v>1695.896681491429</v>
       </c>
       <c r="N4" t="n">
-        <v>410.1421380914022</v>
+        <v>1814.319023241029</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870918</v>
+        <v>1912.782669736719</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152296</v>
+        <v>1937.213812118546</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152296</v>
+        <v>1937.213812118546</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152296</v>
+        <v>1937.213812118546</v>
       </c>
       <c r="T4" t="n">
-        <v>571.5742683152296</v>
+        <v>1910.582815326803</v>
       </c>
       <c r="U4" t="n">
-        <v>571.5742683152296</v>
+        <v>1910.582815326803</v>
       </c>
       <c r="V4" t="n">
-        <v>571.5742683152296</v>
+        <v>1910.582815326803</v>
       </c>
       <c r="W4" t="n">
-        <v>571.5742683152296</v>
+        <v>1910.582815326803</v>
       </c>
       <c r="X4" t="n">
-        <v>571.5742683152296</v>
+        <v>1910.582815326803</v>
       </c>
       <c r="Y4" t="n">
-        <v>571.5742683152296</v>
+        <v>1910.582815326803</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1357.348667677849</v>
+        <v>1211.232835557993</v>
       </c>
       <c r="C5" t="n">
-        <v>1357.348667677849</v>
+        <v>829.2990768908003</v>
       </c>
       <c r="D5" t="n">
-        <v>984.5247029050722</v>
+        <v>456.4751121180238</v>
       </c>
       <c r="E5" t="n">
-        <v>869.7702003049387</v>
+        <v>61.68939222413071</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6190096151091</v>
+        <v>51.57860557470509</v>
       </c>
       <c r="G5" t="n">
         <v>39.51502306929713</v>
@@ -4565,25 +4565,25 @@
         <v>39.51502306929713</v>
       </c>
       <c r="J5" t="n">
-        <v>111.5135673421028</v>
+        <v>39.51502306929713</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6539393868856</v>
+        <v>279.6553951140799</v>
       </c>
       <c r="L5" t="n">
-        <v>699.5393124718319</v>
+        <v>627.5407681990262</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.77847872492</v>
+        <v>1020.779934452114</v>
       </c>
       <c r="N5" t="n">
-        <v>1348.157418849432</v>
+        <v>1399.11129313983</v>
       </c>
       <c r="O5" t="n">
-        <v>1653.162003322266</v>
+        <v>1704.115877612664</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.31889977832</v>
+        <v>1932.272774068717</v>
       </c>
       <c r="Q5" t="n">
         <v>1975.751153464857</v>
@@ -4595,22 +4595,22 @@
         <v>1975.751153464857</v>
       </c>
       <c r="T5" t="n">
-        <v>1751.392207195868</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="U5" t="n">
-        <v>1751.392207195868</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="V5" t="n">
-        <v>1751.392207195868</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="W5" t="n">
-        <v>1751.392207195868</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="X5" t="n">
-        <v>1751.392207195868</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Y5" t="n">
-        <v>1751.392207195868</v>
+        <v>1605.276375076012</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>711.6068612516142</v>
+        <v>918.8277835713412</v>
       </c>
       <c r="C6" t="n">
-        <v>549.9031884925689</v>
+        <v>757.124110812296</v>
       </c>
       <c r="D6" t="n">
-        <v>549.9031884925689</v>
+        <v>618.285473802508</v>
       </c>
       <c r="E6" t="n">
-        <v>402.8751785494402</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F6" t="n">
-        <v>268.1813804993145</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G6" t="n">
-        <v>139.4528805225991</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H6" t="n">
-        <v>39.51502306929713</v>
+        <v>107.8973083792361</v>
       </c>
       <c r="I6" t="n">
         <v>39.51502306929713</v>
@@ -4650,46 +4650,46 @@
         <v>329.259722162592</v>
       </c>
       <c r="L6" t="n">
-        <v>609.5194386879274</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M6" t="n">
-        <v>1094.552792198154</v>
+        <v>1180.114920842934</v>
       </c>
       <c r="N6" t="n">
-        <v>1583.551202680706</v>
+        <v>1669.113331325486</v>
       </c>
       <c r="O6" t="n">
-        <v>1975.751153464857</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="P6" t="n">
-        <v>1975.751153464857</v>
+        <v>1817.979523679262</v>
       </c>
       <c r="Q6" t="n">
         <v>1975.751153464857</v>
       </c>
       <c r="R6" t="n">
-        <v>1915.966884559802</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S6" t="n">
-        <v>1763.167397572543</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738528</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="U6" t="n">
-        <v>1355.987501336838</v>
+        <v>1938.397032143585</v>
       </c>
       <c r="V6" t="n">
-        <v>1355.987501336838</v>
+        <v>1710.001409591919</v>
       </c>
       <c r="W6" t="n">
-        <v>1261.464618505501</v>
+        <v>1468.685540825229</v>
       </c>
       <c r="X6" t="n">
-        <v>1063.547630383296</v>
+        <v>1270.768552703023</v>
       </c>
       <c r="Y6" t="n">
-        <v>871.026304032875</v>
+        <v>1078.247226352602</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.66001068933105</v>
+        <v>351.3683232642462</v>
       </c>
       <c r="C7" t="n">
-        <v>77.66001068933105</v>
+        <v>351.3683232642462</v>
       </c>
       <c r="D7" t="n">
-        <v>77.66001068933105</v>
+        <v>351.3683232642462</v>
       </c>
       <c r="E7" t="n">
-        <v>77.66001068933105</v>
+        <v>351.3683232642462</v>
       </c>
       <c r="F7" t="n">
-        <v>77.66001068933105</v>
+        <v>198.8876682900233</v>
       </c>
       <c r="G7" t="n">
-        <v>77.66001068933105</v>
+        <v>198.8876682900233</v>
       </c>
       <c r="H7" t="n">
         <v>39.51502306929713</v>
@@ -4753,22 +4753,22 @@
         <v>571.5742683152296</v>
       </c>
       <c r="T7" t="n">
-        <v>338.3953151309084</v>
+        <v>351.3683232642462</v>
       </c>
       <c r="U7" t="n">
-        <v>338.3953151309084</v>
+        <v>351.3683232642462</v>
       </c>
       <c r="V7" t="n">
-        <v>77.66001068933105</v>
+        <v>351.3683232642462</v>
       </c>
       <c r="W7" t="n">
-        <v>77.66001068933105</v>
+        <v>351.3683232642462</v>
       </c>
       <c r="X7" t="n">
-        <v>77.66001068933105</v>
+        <v>351.3683232642462</v>
       </c>
       <c r="Y7" t="n">
-        <v>77.66001068933105</v>
+        <v>351.3683232642462</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1089.748999113537</v>
+        <v>446.1323839232255</v>
       </c>
       <c r="C8" t="n">
-        <v>1089.748999113537</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="D8" t="n">
-        <v>1089.748999113537</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>872.2794333368408</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
         <v>42.02425610119923</v>
@@ -4835,19 +4835,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1846.327468773955</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1846.327468773955</v>
+        <v>1978.282849486312</v>
       </c>
       <c r="W8" t="n">
-        <v>1483.792538631556</v>
+        <v>1615.747919343913</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.792538631556</v>
+        <v>1233.717778865407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.792538631556</v>
+        <v>840.1759234412445</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059961</v>
@@ -4905,25 +4905,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1852.743432320892</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U9" t="n">
-        <v>1634.248639919202</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V9" t="n">
-        <v>1405.853017367536</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1164.537148600846</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>1164.537148600846</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
         <v>1080.756459384504</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4999,13 +4999,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>495.3118790135463</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1626.54420975835</v>
+        <v>965.4560866961566</v>
       </c>
       <c r="C11" t="n">
-        <v>1357.669313767556</v>
+        <v>676.3450122865729</v>
       </c>
       <c r="D11" t="n">
-        <v>1077.668033252388</v>
+        <v>676.3450122865729</v>
       </c>
       <c r="E11" t="n">
-        <v>775.7049976161043</v>
+        <v>374.3819766502887</v>
       </c>
       <c r="F11" t="n">
-        <v>454.3764911838837</v>
+        <v>374.3819766502887</v>
       </c>
       <c r="G11" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J11" t="n">
         <v>214.074731475774</v>
@@ -5045,46 +5045,46 @@
         <v>545.1906163614394</v>
       </c>
       <c r="L11" t="n">
-        <v>973.9184328662941</v>
+        <v>984.0515022872682</v>
       </c>
       <c r="M11" t="n">
-        <v>1367.157599119382</v>
+        <v>1468.266181381239</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.46447064798</v>
+        <v>1846.597540068954</v>
       </c>
       <c r="O11" t="n">
-        <v>2141.469055120814</v>
+        <v>2230.303639723528</v>
       </c>
       <c r="P11" t="n">
-        <v>2460.60146441775</v>
+        <v>2458.460536179582</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104287</v>
+        <v>2552.892789866119</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.62742699225</v>
+        <v>2502.008667086637</v>
       </c>
       <c r="T11" t="n">
-        <v>2460.62742699225</v>
+        <v>2370.472405075257</v>
       </c>
       <c r="U11" t="n">
-        <v>2460.62742699225</v>
+        <v>2370.472405075257</v>
       </c>
       <c r="V11" t="n">
-        <v>2216.4708371458</v>
+        <v>2126.315815228807</v>
       </c>
       <c r="W11" t="n">
-        <v>2216.4708371458</v>
+        <v>1856.603569344017</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.263380924903</v>
+        <v>1567.39611312312</v>
       </c>
       <c r="Y11" t="n">
-        <v>1626.54420975835</v>
+        <v>1266.676941956567</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F12" t="n">
         <v>348.1493171020421</v>
@@ -5115,13 +5115,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J12" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L12" t="n">
         <v>706.6672186254962</v>
@@ -5142,28 +5142,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S12" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U12" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V12" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.9765238761549</v>
+        <v>449.6344945927689</v>
       </c>
       <c r="C13" t="n">
-        <v>313.1832385954442</v>
+        <v>372.8412093120581</v>
       </c>
       <c r="D13" t="n">
-        <v>252.934029680816</v>
+        <v>312.5920003974299</v>
       </c>
       <c r="E13" t="n">
-        <v>193.7476996997439</v>
+        <v>253.4056704163578</v>
       </c>
       <c r="F13" t="n">
-        <v>193.7476996997439</v>
+        <v>193.7476996997438</v>
       </c>
       <c r="G13" t="n">
         <v>117.6506353252029</v>
       </c>
       <c r="H13" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499903</v>
       </c>
       <c r="K13" t="n">
-        <v>207.7937882505251</v>
+        <v>207.793788250525</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M13" t="n">
         <v>608.3453994601515</v>
@@ -5221,28 +5221,28 @@
         <v>1214.331474543591</v>
       </c>
       <c r="R13" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="S13" t="n">
-        <v>1036.745299076875</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="T13" t="n">
-        <v>1036.745299076875</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="U13" t="n">
-        <v>1036.745299076875</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="V13" t="n">
-        <v>868.8326788929062</v>
+        <v>925.5317760209186</v>
       </c>
       <c r="W13" t="n">
-        <v>675.4989616679143</v>
+        <v>732.1980587959267</v>
       </c>
       <c r="X13" t="n">
-        <v>609.9216828530396</v>
+        <v>669.5796535696534</v>
       </c>
       <c r="Y13" t="n">
-        <v>480.7092083029257</v>
+        <v>540.3671790195395</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1237.672108863875</v>
+        <v>1565.45047189</v>
       </c>
       <c r="C14" t="n">
-        <v>1237.672108863875</v>
+        <v>1276.339397480417</v>
       </c>
       <c r="D14" t="n">
-        <v>1237.672108863875</v>
+        <v>996.3381169652494</v>
       </c>
       <c r="E14" t="n">
-        <v>935.709073227591</v>
+        <v>694.3750813289653</v>
       </c>
       <c r="F14" t="n">
-        <v>614.3805667953704</v>
+        <v>694.3750813289653</v>
       </c>
       <c r="G14" t="n">
-        <v>291.0992645071674</v>
+        <v>371.0937790407623</v>
       </c>
       <c r="H14" t="n">
-        <v>51.10067436208573</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>214.074731475774</v>
+        <v>214.0747314757741</v>
       </c>
       <c r="K14" t="n">
         <v>545.1906163614394</v>
       </c>
       <c r="L14" t="n">
-        <v>893.0759894463856</v>
+        <v>984.0515022872682</v>
       </c>
       <c r="M14" t="n">
-        <v>1286.315155699474</v>
+        <v>1455.992183722096</v>
       </c>
       <c r="N14" t="n">
-        <v>1755.622027228072</v>
+        <v>1925.299055250694</v>
       </c>
       <c r="O14" t="n">
-        <v>2060.626611700906</v>
+        <v>2230.303639723528</v>
       </c>
       <c r="P14" t="n">
-        <v>2367.485023338699</v>
+        <v>2458.460536179581</v>
       </c>
       <c r="Q14" t="n">
-        <v>2552.892789866119</v>
+        <v>2552.892789866118</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2555.033718104287</v>
+        <v>2460.62742699225</v>
       </c>
       <c r="T14" t="n">
-        <v>2555.033718104287</v>
+        <v>2329.09116498087</v>
       </c>
       <c r="U14" t="n">
-        <v>2555.033718104287</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="V14" t="n">
-        <v>2310.877128257837</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="W14" t="n">
-        <v>2128.819591511736</v>
+        <v>2155.878783371308</v>
       </c>
       <c r="X14" t="n">
-        <v>1839.612135290838</v>
+        <v>1866.67132715041</v>
       </c>
       <c r="Y14" t="n">
-        <v>1538.892964124285</v>
+        <v>1866.67132715041</v>
       </c>
     </row>
     <row r="15">
@@ -5352,13 +5352,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
         <v>706.6672186254962</v>
@@ -5379,28 +5379,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>323.1656974437865</v>
+        <v>270.5409849804544</v>
       </c>
       <c r="C16" t="n">
-        <v>246.3724121630759</v>
+        <v>193.7476996997438</v>
       </c>
       <c r="D16" t="n">
-        <v>237.7644288574114</v>
+        <v>193.7476996997438</v>
       </c>
       <c r="E16" t="n">
-        <v>178.5780988763391</v>
+        <v>193.7476996997438</v>
       </c>
       <c r="F16" t="n">
-        <v>178.5780988763391</v>
+        <v>193.7476996997438</v>
       </c>
       <c r="G16" t="n">
-        <v>102.4810345017982</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="H16" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499904</v>
+        <v>83.21408766499908</v>
       </c>
       <c r="K16" t="n">
         <v>207.7937882505251</v>
@@ -5443,10 +5443,10 @@
         <v>399.3763804916672</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601515</v>
+        <v>608.3453994601516</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506347</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5464,22 +5464,22 @@
         <v>1093.444396204887</v>
       </c>
       <c r="T16" t="n">
-        <v>953.088127278175</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="U16" t="n">
-        <v>758.7205720248839</v>
+        <v>990.1622612133142</v>
       </c>
       <c r="V16" t="n">
-        <v>590.8079518409156</v>
+        <v>822.2496410293459</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8079518409156</v>
+        <v>628.9159238043541</v>
       </c>
       <c r="X16" t="n">
-        <v>452.3781719939004</v>
+        <v>490.486143957339</v>
       </c>
       <c r="Y16" t="n">
-        <v>323.1656974437865</v>
+        <v>361.2736694072252</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E17" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F17" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G17" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H17" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575752</v>
       </c>
       <c r="I17" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362655</v>
       </c>
       <c r="K17" t="n">
-        <v>567.8831210837625</v>
+        <v>479.0485364810482</v>
       </c>
       <c r="L17" t="n">
-        <v>915.7684941687087</v>
+        <v>991.4016840570268</v>
       </c>
       <c r="M17" t="n">
-        <v>1309.007660421797</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N17" t="n">
-        <v>1687.339019109512</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O17" t="n">
-        <v>1992.343603582346</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P17" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5598,7 +5598,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287324</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500831</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670347</v>
+        <v>81.02642599070923</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670347</v>
+        <v>96.0479105415057</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208574</v>
+        <v>94.93529841688792</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912213</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912213</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912213</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437655</v>
       </c>
       <c r="L19" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440251</v>
       </c>
       <c r="M19" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716268</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212272</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169168</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562744</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041027</v>
+        <v>516.9916253794854</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761174</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420723</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670036</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699116</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972086</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F20" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G20" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H20" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575752</v>
       </c>
       <c r="I20" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M20" t="n">
-        <v>1433.299678999773</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N20" t="n">
-        <v>1811.631037687489</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O20" t="n">
-        <v>2116.635622160323</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P20" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q20" t="n">
         <v>2479.400528215969</v>
@@ -5777,13 +5777,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S20" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T20" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U20" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702244</v>
       </c>
       <c r="V20" t="n">
         <v>2222.809732105717</v>
@@ -5792,10 +5792,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5853,25 +5853,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
         <v>1089.832877645391</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287324</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670347</v>
+        <v>56.10982900776041</v>
       </c>
       <c r="F22" t="n">
-        <v>52.21328648670347</v>
+        <v>71.13131355855688</v>
       </c>
       <c r="G22" t="n">
-        <v>51.10067436208574</v>
+        <v>70.0187014339391</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413769</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413769</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208574</v>
+        <v>78.28534634413769</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672915</v>
+        <v>111.8895340887811</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>212.4966134890406</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>330.4901196166423</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9465500458442</v>
+        <v>448.9124613662427</v>
       </c>
       <c r="O22" t="n">
-        <v>566.4101965415339</v>
+        <v>547.3761078619324</v>
       </c>
       <c r="P22" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900702</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900702</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562744</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.9916253794854</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761174</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420723</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670036</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699116</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972086</v>
       </c>
     </row>
     <row r="23">
@@ -5969,58 +5969,58 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E23" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575752</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K23" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.060512746685</v>
+        <v>875.5927382556526</v>
       </c>
       <c r="M23" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N23" t="n">
-        <v>1851.806793600545</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O23" t="n">
-        <v>2156.811378073378</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038401</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2479.40052821597</v>
       </c>
       <c r="R23" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="S23" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702244</v>
       </c>
       <c r="V23" t="n">
         <v>2222.809732105717</v>
@@ -6029,10 +6029,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X23" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J24" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6090,16 +6090,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
         <v>1721.587060884707</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749102</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208573</v>
+        <v>56.26358779153788</v>
       </c>
       <c r="I25" t="n">
-        <v>74.23504503930332</v>
+        <v>79.39795846875542</v>
       </c>
       <c r="J25" t="n">
-        <v>74.23504503930332</v>
+        <v>79.39795846875542</v>
       </c>
       <c r="K25" t="n">
-        <v>107.8392327839467</v>
+        <v>113.0021462133988</v>
       </c>
       <c r="L25" t="n">
-        <v>208.4463121842062</v>
+        <v>213.6092256136583</v>
       </c>
       <c r="M25" t="n">
-        <v>326.439818311808</v>
+        <v>331.6027317412601</v>
       </c>
       <c r="N25" t="n">
-        <v>444.8621600614084</v>
+        <v>450.0250734908604</v>
       </c>
       <c r="O25" t="n">
-        <v>543.3258065570981</v>
+        <v>548.4887199865501</v>
       </c>
       <c r="P25" t="n">
-        <v>611.4572037146872</v>
+        <v>611.4572037146879</v>
       </c>
       <c r="Q25" t="n">
-        <v>611.4572037146872</v>
+        <v>611.4572037146879</v>
       </c>
       <c r="R25" t="n">
-        <v>629.3786802696717</v>
+        <v>629.3786802696724</v>
       </c>
       <c r="S25" t="n">
-        <v>583.4760541808915</v>
+        <v>583.4760541808921</v>
       </c>
       <c r="T25" t="n">
-        <v>518.1042375041027</v>
+        <v>518.1042375041031</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007353</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666901</v>
       </c>
       <c r="W25" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916214</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9983739945291</v>
+        <v>123.9983739945293</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433864</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.398690093981</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C26" t="n">
         <v>1386.425607044544</v>
@@ -6209,67 +6209,67 @@
         <v>1143.562317889524</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133864</v>
+        <v>878.7372736133867</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413129</v>
+        <v>594.5467585413132</v>
       </c>
       <c r="G26" t="n">
-        <v>308.403447613257</v>
+        <v>308.4034476132574</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283223</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487437</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006427</v>
+        <v>262.0593281006429</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183883</v>
+        <v>584.4800274945175</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.833989576297</v>
+        <v>1059.739858752426</v>
       </c>
       <c r="M26" t="n">
-        <v>1625.447614002348</v>
+        <v>1580.353483178477</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.153430863027</v>
+        <v>2086.059300039156</v>
       </c>
       <c r="O26" t="n">
-        <v>2563.532473508823</v>
+        <v>2518.438342684953</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.96969731397</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173469</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743718</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991829</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340596</v>
+        <v>2982.649712340595</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672346</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186043</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.1321986614</v>
+        <v>2418.132198661399</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.06273380065</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994244</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>131.0686109648134</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487437</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K27" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6327,10 +6327,10 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T27" t="n">
         <v>2180.063127130852</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042404</v>
+        <v>252.6345665042396</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836768</v>
+        <v>212.9792725836761</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291956</v>
+        <v>189.8680550291951</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082706</v>
+        <v>167.8197164082701</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518038</v>
+        <v>145.2997370518034</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374099</v>
+        <v>106.3406640374096</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443976</v>
+        <v>76.92869443443962</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487437</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J28" t="n">
-        <v>62.68632565487437</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K28" t="n">
-        <v>96.29051339951778</v>
+        <v>164.8028720345113</v>
       </c>
       <c r="L28" t="n">
-        <v>324.27205097274</v>
+        <v>265.4099514347708</v>
       </c>
       <c r="M28" t="n">
-        <v>442.2655571003417</v>
+        <v>398.742063730735</v>
       </c>
       <c r="N28" t="n">
-        <v>688.0623570229047</v>
+        <v>644.5388636532982</v>
       </c>
       <c r="O28" t="n">
-        <v>870.3769683219524</v>
+        <v>870.3769683219507</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.719910223053</v>
+        <v>1060.719910223051</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374631</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396074</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295093</v>
+        <v>943.7954498295079</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363652</v>
+        <v>786.565885936364</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125439</v>
+        <v>655.7912571125428</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476992</v>
+        <v>499.595531247698</v>
       </c>
       <c r="X28" t="n">
-        <v>398.303742760831</v>
+        <v>398.30374276083</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708642</v>
+        <v>306.2292595708633</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.39869009398</v>
+        <v>1638.398690093981</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.562317889523</v>
+        <v>1143.562317889524</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133858</v>
+        <v>878.7372736133867</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413122</v>
+        <v>594.5467585413132</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132563</v>
+        <v>308.4034476132574</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283222</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487437</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006428</v>
+        <v>216.9651972767718</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183883</v>
+        <v>584.4800274945175</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.833989576297</v>
+        <v>1059.739858752426</v>
       </c>
       <c r="M29" t="n">
-        <v>1625.447614002348</v>
+        <v>1580.353483178477</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039157</v>
+        <v>2086.059300039156</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684954</v>
+        <v>2518.438342684953</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313969</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173469</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.316282743718</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S29" t="n">
         <v>3077.047982991828</v>
@@ -6503,10 +6503,10 @@
         <v>2418.1321986614</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800649</v>
+        <v>2166.06273380065</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994243</v>
+        <v>1902.481553994244</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>131.0686109648134</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487437</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J30" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4310247481692</v>
+        <v>352.4310247481691</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182849</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.63456650424</v>
+        <v>252.6345665042396</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836765</v>
+        <v>212.9792725836761</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291953</v>
+        <v>189.8680550291951</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082703</v>
+        <v>167.8197164082701</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518036</v>
+        <v>145.2997370518034</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374097</v>
+        <v>106.3406640374096</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443971</v>
+        <v>76.92869443443962</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487437</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J31" t="n">
-        <v>62.68632565487437</v>
+        <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>223.6649715724806</v>
+        <v>164.8028720345113</v>
       </c>
       <c r="L31" t="n">
-        <v>408.1230157760971</v>
+        <v>392.7844096077337</v>
       </c>
       <c r="M31" t="n">
-        <v>526.1165219036989</v>
+        <v>526.1165219036978</v>
       </c>
       <c r="N31" t="n">
-        <v>771.9133218262619</v>
+        <v>644.5388636532982</v>
       </c>
       <c r="O31" t="n">
-        <v>870.3769683219516</v>
+        <v>870.3769683219507</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223052</v>
+        <v>1060.719910223051</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142496</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.76281437463</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396074</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295086</v>
+        <v>943.7954498295079</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363646</v>
+        <v>786.565885936364</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125433</v>
+        <v>655.7912571125428</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476986</v>
+        <v>499.595531247698</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608305</v>
+        <v>398.30374276083</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708637</v>
+        <v>306.2292595708633</v>
       </c>
     </row>
     <row r="32">
@@ -6683,7 +6683,7 @@
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646302</v>
+        <v>843.4407289646301</v>
       </c>
       <c r="F32" t="n">
         <v>567.4470417967701</v>
@@ -6692,13 +6692,13 @@
         <v>289.5005587729277</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220664</v>
+        <v>94.83678789220662</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297227</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J32" t="n">
-        <v>267.5838060976603</v>
+        <v>132.1756368957779</v>
       </c>
       <c r="K32" t="n">
         <v>507.7241781424431</v>
@@ -6707,28 +6707,28 @@
         <v>991.0177204292718</v>
       </c>
       <c r="M32" t="n">
-        <v>1519.665055884242</v>
+        <v>1414.723276438775</v>
       </c>
       <c r="N32" t="n">
-        <v>2033.40458377384</v>
+        <v>1928.462804328373</v>
       </c>
       <c r="O32" t="n">
-        <v>2473.817337448557</v>
+        <v>2368.875558003089</v>
       </c>
       <c r="P32" t="n">
-        <v>2837.382403106492</v>
+        <v>2732.440623661025</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549445</v>
+        <v>2962.281046549444</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148613</v>
+        <v>3008.854631148612</v>
       </c>
       <c r="S32" t="n">
-        <v>2959.783159300937</v>
+        <v>2959.783159300936</v>
       </c>
       <c r="T32" t="n">
-        <v>2873.581716553918</v>
+        <v>2873.581716553917</v>
       </c>
       <c r="U32" t="n">
         <v>2756.853883789881</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.4898531250163</v>
+        <v>924.7772356649118</v>
       </c>
       <c r="C33" t="n">
-        <v>777.7861803659711</v>
+        <v>763.0735629058665</v>
       </c>
       <c r="D33" t="n">
-        <v>638.9475433561831</v>
+        <v>624.2349258960786</v>
       </c>
       <c r="E33" t="n">
-        <v>491.9195334130543</v>
+        <v>477.2069159529498</v>
       </c>
       <c r="F33" t="n">
-        <v>357.2257353629286</v>
+        <v>342.5131179028242</v>
       </c>
       <c r="G33" t="n">
-        <v>228.4972353862132</v>
+        <v>213.7846179261088</v>
       </c>
       <c r="H33" t="n">
-        <v>128.5593779329113</v>
+        <v>113.8467604728068</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297227</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6801,28 +6801,28 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2519.038484920224</v>
+        <v>2504.325867460119</v>
       </c>
       <c r="S33" t="n">
-        <v>2366.238997932964</v>
+        <v>2351.52638047286</v>
       </c>
       <c r="T33" t="n">
-        <v>2177.55389409895</v>
+        <v>2162.841276638845</v>
       </c>
       <c r="U33" t="n">
-        <v>1959.05910169726</v>
+        <v>1944.346484237155</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.663479145594</v>
+        <v>1715.950861685489</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.347610378904</v>
+        <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.430622256698</v>
+        <v>1276.718004796594</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.909295906277</v>
+        <v>1084.196678446173</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428437</v>
+        <v>192.7475381428434</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264936</v>
+        <v>161.2890721264934</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762259</v>
+        <v>146.3746824762258</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595144</v>
+        <v>132.5231717595142</v>
       </c>
       <c r="F34" t="n">
-        <v>118.2000203072611</v>
+        <v>118.200020307261</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708071</v>
+        <v>87.43777519708063</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832414</v>
+        <v>66.22263349832409</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297227</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J34" t="n">
         <v>136.7231622868854</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3273500315288</v>
+        <v>305.7355192334112</v>
       </c>
       <c r="L34" t="n">
-        <v>270.9344294317883</v>
+        <v>521.1797415937851</v>
       </c>
       <c r="M34" t="n">
-        <v>388.9279355593901</v>
+        <v>639.1732477213868</v>
       </c>
       <c r="N34" t="n">
-        <v>622.1874202691051</v>
+        <v>757.5955894709872</v>
       </c>
       <c r="O34" t="n">
-        <v>720.6510667647948</v>
+        <v>856.0592359666769</v>
       </c>
       <c r="P34" t="n">
-        <v>919.027719694815</v>
+        <v>919.0277196948147</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779526</v>
+        <v>1005.301162779525</v>
       </c>
       <c r="S34" t="n">
-        <v>929.748903705183</v>
+        <v>929.7489037051827</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428315</v>
+        <v>834.7274540428311</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539009</v>
+        <v>685.6947180539006</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342932</v>
+        <v>563.1169171342929</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736619</v>
+        <v>415.1180191736615</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910072</v>
+        <v>322.0230585910069</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052539</v>
+        <v>238.1454033052536</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
         <v>287.5669931259238</v>
@@ -6941,31 +6941,31 @@
         <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>991.4016840570278</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1384.640850310116</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1762.972208997831</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2067.976793470665</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.601464417751</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104288</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720248</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749092</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670348</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670348</v>
+        <v>81.02642599070933</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670348</v>
+        <v>96.04791054150586</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208575</v>
+        <v>94.93529841688813</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208575</v>
+        <v>94.93529841688813</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208575</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208575</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672917</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>450.0250734908598</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>548.4887199865494</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7175,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1384.640850310114</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1762.97220899783</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>2067.976793470664</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P38" t="n">
-        <v>2296.133689926717</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>65.54268635500836</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>81.02642599070933</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>96.04791054150586</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>94.93529841688813</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>94.93529841688813</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>94.93529841688813</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>94.93529841688813</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>128.5394861615316</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>229.1465655617911</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>347.1400716893928</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>465.5624134389932</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>564.0260599346828</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>626.9945436628207</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>626.9945436628207</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>1080.236268659741</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1473.475434912829</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N41" t="n">
-        <v>1851.806793600545</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O41" t="n">
-        <v>2156.811378073378</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q41" t="n">
         <v>2479.400528215969</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208574</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>96.04791054150587</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>94.93529841688814</v>
       </c>
       <c r="H43" t="n">
-        <v>59.36731927228439</v>
+        <v>94.93529841688814</v>
       </c>
       <c r="I43" t="n">
-        <v>59.36731927228439</v>
+        <v>94.93529841688814</v>
       </c>
       <c r="J43" t="n">
-        <v>59.36731927228439</v>
+        <v>94.93529841688814</v>
       </c>
       <c r="K43" t="n">
-        <v>92.9715070169278</v>
+        <v>128.5394861615316</v>
       </c>
       <c r="L43" t="n">
-        <v>193.5785864171873</v>
+        <v>229.1465655617911</v>
       </c>
       <c r="M43" t="n">
-        <v>311.572092544789</v>
+        <v>347.1400716893928</v>
       </c>
       <c r="N43" t="n">
-        <v>429.9944342943894</v>
+        <v>465.5624134389932</v>
       </c>
       <c r="O43" t="n">
-        <v>548.4887199865494</v>
+        <v>564.0260599346828</v>
       </c>
       <c r="P43" t="n">
-        <v>611.4572037146872</v>
+        <v>626.9945436628207</v>
       </c>
       <c r="Q43" t="n">
-        <v>611.4572037146872</v>
+        <v>626.9945436628207</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575749</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707065</v>
+        <v>692.1751396617389</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556526</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M44" t="n">
-        <v>1268.831904508741</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N44" t="n">
         <v>1811.631037687489</v>
       </c>
       <c r="O44" t="n">
-        <v>2116.635622160322</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P44" t="n">
         <v>2344.792518616376</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,7 +7688,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
         <v>1588.124215583246</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749102</v>
+        <v>54.02211951749096</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
@@ -7804,52 +7804,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>79.39795846875508</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>113.0021462133985</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>213.609225613658</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>331.6027317412597</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>450.0250734908601</v>
       </c>
       <c r="O46" t="n">
-        <v>520.1914358798805</v>
+        <v>548.4887199865498</v>
       </c>
       <c r="P46" t="n">
-        <v>583.1599196080183</v>
+        <v>611.4572037146876</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696724</v>
+        <v>611.4572037146876</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808921</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041031</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007353</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666901</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916214</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945293</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433864</v>
+        <v>69.77035169433856</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>370.8458734565154</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>224.5409279685861</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,13 +8055,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>223.8247937300756</v>
+        <v>236.3007737123003</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
@@ -8073,7 +8073,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8225,7 +8225,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>444.3566395505257</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>224.5409279685861</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8298,7 +8298,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>395.6660563240118</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
@@ -8307,13 +8307,13 @@
         <v>600.6529294339225</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>266.2293398775514</v>
       </c>
       <c r="P6" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8541,13 +8541,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>394.1362801165803</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>605.416582875</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.208646707806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>20.03381663460167</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.19456938825901</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.96742769344297</v>
       </c>
       <c r="T11" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>160.4420255081129</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.0613910094477</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831531</v>
+        <v>50.86655653831532</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.13210615673263</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>72.12397602181908</v>
+        <v>75.05326087453446</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654877</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2012677100157</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.1152213678984</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.194569388259</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091663</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>86.77816204730175</v>
+        <v>255.9768911405881</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>297.7119794548873</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250307</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>51.12481335287414</v>
+        <v>59.64671682548192</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126137</v>
       </c>
       <c r="F16" t="n">
-        <v>59.0613910094477</v>
+        <v>59.06139100944768</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348596</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.86655653831528</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673262</v>
+        <v>56.13210615673259</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>90.17456605910087</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-4.567781144396204e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>978720.6771300819</v>
+        <v>978720.6771300817</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364621.4287347364</v>
+        <v>364621.4287347365</v>
       </c>
       <c r="C2" t="n">
         <v>364621.4287347363</v>
       </c>
       <c r="D2" t="n">
-        <v>364621.4287347365</v>
+        <v>364621.4287347363</v>
       </c>
       <c r="E2" t="n">
-        <v>316666.1859537387</v>
+        <v>316666.1859537385</v>
       </c>
       <c r="F2" t="n">
         <v>316666.1859537385</v>
       </c>
       <c r="G2" t="n">
+        <v>364621.4287347366</v>
+      </c>
+      <c r="H2" t="n">
         <v>364621.4287347365</v>
       </c>
-      <c r="H2" t="n">
-        <v>364621.4287347366</v>
-      </c>
       <c r="I2" t="n">
-        <v>364621.4287347366</v>
+        <v>364621.4287347365</v>
       </c>
       <c r="J2" t="n">
-        <v>364621.4287347359</v>
+        <v>364621.4287347356</v>
       </c>
       <c r="K2" t="n">
-        <v>364621.4287347358</v>
+        <v>364621.4287347356</v>
       </c>
       <c r="L2" t="n">
-        <v>364621.4287347371</v>
+        <v>364621.428734737</v>
       </c>
       <c r="M2" t="n">
-        <v>364621.4287347366</v>
+        <v>364621.4287347365</v>
       </c>
       <c r="N2" t="n">
         <v>364621.4287347365</v>
       </c>
       <c r="O2" t="n">
-        <v>364621.4287347366</v>
+        <v>364621.4287347365</v>
       </c>
       <c r="P2" t="n">
         <v>364621.4287347366</v>
@@ -26375,10 +26375,10 @@
         <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193919</v>
+        <v>59387.68618193913</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210668.4794422432</v>
+        <v>210668.4794422433</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207628</v>
+        <v>65879.57388207619</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.50932456562</v>
+        <v>23482.5093245656</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732362</v>
+        <v>43541.16890732374</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="F4" t="n">
         <v>118181.7253353295</v>
@@ -26442,7 +26442,7 @@
         <v>176368.812935792</v>
       </c>
       <c r="K4" t="n">
-        <v>176368.8129357921</v>
+        <v>176368.812935792</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26451,7 +26451,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
         <v>175623.1205402357</v>
@@ -26476,10 +26476,10 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
+        <v>46561.98765560956</v>
+      </c>
+      <c r="F5" t="n">
         <v>46561.98765560957</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46561.98765560956</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26497,10 +26497,10 @@
         <v>58458.01489582856</v>
       </c>
       <c r="L5" t="n">
-        <v>57233.2059254115</v>
+        <v>57233.20592541149</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58796.53530893034</v>
+        <v>-58796.53530893022</v>
       </c>
       <c r="C6" t="n">
         <v>106733.3781417204</v>
       </c>
       <c r="D6" t="n">
-        <v>103536.596555785</v>
+        <v>103536.5965557849</v>
       </c>
       <c r="E6" t="n">
-        <v>44531.67188703614</v>
+        <v>44279.27587239918</v>
       </c>
       <c r="F6" t="n">
-        <v>151922.4729627995</v>
+        <v>151670.0769481627</v>
       </c>
       <c r="G6" t="n">
-        <v>76807.80511991525</v>
+        <v>76807.8051199154</v>
       </c>
       <c r="H6" t="n">
-        <v>136195.4913018546</v>
+        <v>136195.4913018544</v>
       </c>
       <c r="I6" t="n">
-        <v>136195.4913018545</v>
+        <v>136195.4913018544</v>
       </c>
       <c r="J6" t="n">
-        <v>-80873.87853912791</v>
+        <v>-80873.87853912826</v>
       </c>
       <c r="K6" t="n">
-        <v>129794.6009031151</v>
+        <v>129794.600903115</v>
       </c>
       <c r="L6" t="n">
-        <v>65307.83239584857</v>
+        <v>65307.83239584864</v>
       </c>
       <c r="M6" t="n">
         <v>112712.9819772889</v>
@@ -26558,7 +26558,7 @@
         <v>136195.4913018545</v>
       </c>
       <c r="O6" t="n">
-        <v>92654.32239453093</v>
+        <v>92654.32239453075</v>
       </c>
       <c r="P6" t="n">
         <v>136195.4913018546</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,7 +26707,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K2" t="n">
         <v>128.6610688615786</v>
@@ -26796,10 +26796,10 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="F4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="F4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="G4" t="n">
         <v>638.7584295260717</v>
@@ -26808,19 +26808,19 @@
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="J4" t="n">
+        <v>783.5790706859293</v>
+      </c>
+      <c r="K4" t="n">
+        <v>783.5790706859293</v>
+      </c>
+      <c r="L4" t="n">
+        <v>752.2136577871531</v>
+      </c>
+      <c r="M4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="J4" t="n">
-        <v>783.5790706859295</v>
-      </c>
-      <c r="K4" t="n">
-        <v>783.5790706859295</v>
-      </c>
-      <c r="L4" t="n">
-        <v>752.2136577871534</v>
-      </c>
-      <c r="M4" t="n">
-        <v>638.758429526072</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260716</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742399</v>
+        <v>74.23460772742391</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415452</v>
+        <v>54.42646113415468</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259535</v>
+        <v>82.34946735259524</v>
       </c>
       <c r="M2" t="n">
-        <v>29.35313665570703</v>
+        <v>29.353136655707</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415452</v>
+        <v>54.42646113415468</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742399</v>
+        <v>74.23460772742391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415452</v>
+        <v>54.42646113415468</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27379,7 +27379,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27388,16 +27388,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>146.7424686189038</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.5590424377108</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>130.8650779547755</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61.74081897639788</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27555,7 +27555,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>100.2391988224067</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,7 +27588,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>204.4824768286524</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>277.2309051208221</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -27667,7 +27667,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>22.83640626496435</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>179.3292643696138</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>145.3250560760001</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>120.0153810246853</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27825,13 +27825,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>12.84327805200442</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>175.5429925760247</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27907,19 +27907,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>211.9088253451055</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.6532307627385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,10 +28020,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>11.26255399648176</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28071,10 +28071,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>205.3109313575254</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="J11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="K11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="L11" t="n">
-        <v>81.65903375748326</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="N11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>79.49647998155541</v>
       </c>
       <c r="P11" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503293</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="J14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="K14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>79.49647998155501</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>79.49647998155564</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503295</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503297</v>
       </c>
     </row>
     <row r="17">
@@ -28585,16 +28585,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K17" t="n">
-        <v>40.58157162934944</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28606,10 +28606,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28725,19 +28725,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>159.0632869323919</v>
       </c>
       <c r="I19" t="n">
         <v>142.7610139533483</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28822,28 +28822,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
+        <v>40.58157162934964</v>
+      </c>
+      <c r="Q20" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>40.58157162934918</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>166.1290651424569</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>14.5654912855039</v>
       </c>
     </row>
     <row r="22">
@@ -28965,16 +28965,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>155.5486762636425</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29062,25 +29062,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>40.58157162935106</v>
+      </c>
+      <c r="Q23" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>40.58157162934924</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>166.1290651424569</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>14.56549128550378</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>162.9939828386726</v>
       </c>
       <c r="I25" t="n">
         <v>166.1290651424569</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.215064070152906</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615785</v>
+        <v>83.11144176675944</v>
       </c>
       <c r="L26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P26" t="n">
-        <v>83.11144176676083</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="27">
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615785</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>15.49354158420456</v>
       </c>
       <c r="N28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O28" t="n">
-        <v>84.69794424581616</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615785</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>128.6610688615786</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615786</v>
+        <v>83.11144176675944</v>
       </c>
       <c r="K29" t="n">
         <v>128.6610688615786</v>
@@ -29545,7 +29545,7 @@
         <v>128.6610688615786</v>
       </c>
       <c r="N29" t="n">
-        <v>83.11144176676066</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O29" t="n">
         <v>128.6610688615786</v>
@@ -29691,22 +29691,22 @@
         <v>128.6610688615786</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>128.6610688615786</v>
       </c>
-      <c r="L31" t="n">
-        <v>84.69794424581522</v>
-      </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>15.49354158420451</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>128.6610688615786</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>128.6610688615786</v>
@@ -29770,16 +29770,16 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="M32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708565</v>
       </c>
       <c r="N32" t="n">
         <v>136.7759284867499</v>
@@ -29791,7 +29791,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
-        <v>30.77413106708643</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
         <v>136.7759284867499</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550339</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29931,22 +29931,22 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>115.9971141011257</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>115.997114101126</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>136.7759284867499</v>
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>116.978733132702</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30025,13 +30025,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>40.5815716293491</v>
+      </c>
+      <c r="R35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30147,13 +30147,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30162,7 +30162,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>144.0453821172203</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>28.58311525926162</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30247,14 +30247,14 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>116.9787331327004</v>
-      </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
@@ -30262,13 +30262,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>40.58157162934964</v>
       </c>
       <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30384,13 +30384,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30402,7 +30402,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>149.3109317356376</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30481,28 +30481,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>40.58157162934941</v>
+      </c>
+      <c r="P41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K41" t="n">
+      <c r="Q41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L41" t="n">
-        <v>40.5815716293493</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>166.1290651424569</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30621,19 +30621,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>20.23296888532357</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>149.3109317356376</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,7 +30718,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
         <v>166.1290651424569</v>
@@ -30730,19 +30730,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>40.5815716293491</v>
+      </c>
+      <c r="R44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>116.9787331327012</v>
-      </c>
-      <c r="R44" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>88.03978145923097</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.83758476280147</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -32090,7 +32090,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>183.8910766763949</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>43.91755494559583</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>111.2493601589278</v>
+        <v>123.7253401411525</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
@@ -34793,7 +34793,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34945,7 +34945,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>257.9585253782956</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>43.91755494559583</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>283.0906227528641</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
@@ -35027,13 +35027,13 @@
         <v>493.9377883662141</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>150.3698912664403</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35261,13 +35261,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>287.421139048872</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>164.6202597107962</v>
       </c>
       <c r="K11" t="n">
-        <v>334.4604897835004</v>
+        <v>334.4604897835003</v>
       </c>
       <c r="L11" t="n">
-        <v>433.0584005099542</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N11" t="n">
-        <v>474.0473449783822</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>387.5819188430038</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3559689868039</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.162553775927748</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506395</v>
+        <v>32.43779121506393</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995212</v>
@@ -35586,7 +35586,7 @@
         <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218509</v>
+        <v>53.74248948218508</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>164.6202597107962</v>
+        <v>164.6202597107963</v>
       </c>
       <c r="K14" t="n">
         <v>334.4604897835004</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>476.7077590250782</v>
       </c>
       <c r="N14" t="n">
         <v>474.0473449783822</v>
@@ -35662,13 +35662,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>309.9579915533266</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.2805722499188</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927762</v>
+        <v>2.16255377592779</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P15" t="n">
         <v>305.147393207775</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506395</v>
+        <v>32.43779121506397</v>
       </c>
       <c r="K16" t="n">
-        <v>125.8380813995212</v>
+        <v>125.8380813995213</v>
       </c>
       <c r="L16" t="n">
         <v>193.5177699405476</v>
@@ -35820,10 +35820,10 @@
         <v>191.3526861985579</v>
       </c>
       <c r="P16" t="n">
-        <v>155.4989864333539</v>
+        <v>155.498986433354</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218509</v>
+        <v>53.74248948218512</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284644</v>
       </c>
       <c r="K17" t="n">
-        <v>283.1476039978169</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>563.34034418598</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35902,10 +35902,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36021,19 +36021,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14.58789090194199</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>15.64014104616254</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15.17321671797623</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.284368163872942</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36127,22 +36127,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039053</v>
       </c>
       <c r="P20" t="n">
-        <v>271.0430832011201</v>
+        <v>271.0430832011206</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R20" t="n">
-        <v>76.39716150335175</v>
+        <v>76.3971615033517</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36206,7 +36206,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36261,16 +36261,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5.059752167348152</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>15.17321671797623</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.350146373937974</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.10250157069132</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36367,19 +36367,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>422.7344591926985</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>271.043083201122</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>76.3971615033517</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36507,10 +36507,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.215064070153676</v>
       </c>
       <c r="I25" t="n">
-        <v>23.36805118910868</v>
+        <v>23.36805118910863</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36531,13 +36531,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>68.81959308847391</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.10250157069137</v>
+        <v>18.10250157069132</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573418</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300459</v>
+        <v>325.6774741352269</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140494</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051017</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249277</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O26" t="n">
-        <v>436.746507723027</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P26" t="n">
-        <v>313.5729533385318</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964644</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247333</v>
+        <v>38.92916522247344</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.20440266160963</v>
       </c>
       <c r="K28" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>230.2843813870932</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
-        <v>119.1853597248502</v>
+        <v>134.6789013090548</v>
       </c>
       <c r="N28" t="n">
-        <v>248.2795958813768</v>
+        <v>248.279595881377</v>
       </c>
       <c r="O28" t="n">
-        <v>184.1561730293411</v>
+        <v>228.1192976451036</v>
       </c>
       <c r="P28" t="n">
-        <v>192.2655978798995</v>
+        <v>192.2655978798996</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.50910092873066</v>
+        <v>90.50910092873077</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573419</v>
+        <v>155.8372440625227</v>
       </c>
       <c r="K29" t="n">
-        <v>371.227101230046</v>
+        <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
         <v>480.0604356140495</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051017</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
-        <v>465.2643293301099</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O29" t="n">
-        <v>436.746507723027</v>
+        <v>436.7465077230271</v>
       </c>
       <c r="P29" t="n">
         <v>359.1225804333495</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964644</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247339</v>
+        <v>38.92916522247344</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.20440266160963</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460669</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L31" t="n">
-        <v>186.3212567713299</v>
+        <v>230.2843813870933</v>
       </c>
       <c r="M31" t="n">
-        <v>119.1853597248502</v>
+        <v>134.6789013090547</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813769</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45822878352493</v>
+        <v>228.1192976451036</v>
       </c>
       <c r="P31" t="n">
         <v>192.2655978798996</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873072</v>
+        <v>90.50910092873077</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.5017307825132</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684674</v>
+        <v>379.3419608552174</v>
       </c>
       <c r="L32" t="n">
         <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
-        <v>533.9872075302731</v>
+        <v>427.9854101106088</v>
       </c>
       <c r="N32" t="n">
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481983</v>
+        <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
         <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
-        <v>126.1602459019723</v>
+        <v>232.1620433216358</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764472</v>
+        <v>47.04402484764475</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678091</v>
+        <v>77.31926228678094</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>170.7195524712382</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>217.6204266266404</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>235.6156411209243</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>200.3804575050709</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.62396055390205</v>
+        <v>98.62396055390208</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>468.3780998851729</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37321,13 +37321,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,13 +37443,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.284368163872038</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
-        <v>148.20164227906</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>514.1900121762236</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
@@ -37558,13 +37558,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011206</v>
       </c>
       <c r="Q38" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37680,13 +37680,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.284368163872024</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>391.9809383818202</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37792,13 +37792,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907978</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
         <v>76.39716150335175</v>
@@ -37917,19 +37917,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>119.6911976688485</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>1.284368163872024</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109243</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38026,7 +38026,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38035,10 +38035,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3648479675871</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>28.58311525926196</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38193,10 +38193,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.68561682995361</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.10250157069135</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
